--- a/biology/Médecine/1122_en_santé_et_médecine/1122_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1122_en_santé_et_médecine/1122_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1122_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1122_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1122 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1122_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1122_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour accompagner l'armée de Mahmud II, sultan seldjoukide de Bagdad, le vizir Aziz al-Din al-Mustawfi met en place un hôpital de campagne transporté à dos de deux cents dromadaires, doté de médecins et d'infirmières et équipé du matériel médical et des tentes nécessaires à une armée en marche[1].
-1121-1122 : fondation de léproseries à Riom en Auvergne[2].
-Vers 1122 : date la plus probable de la fondation de l'hôpital Saint-Raymond de Toulouse[3].
-1122-1123 : Barthélemy de Jur, évêque de Laon en Picardie, fonde une maladrerie à La Neuville, faubourg de la ville épiscopale[4],[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pour accompagner l'armée de Mahmud II, sultan seldjoukide de Bagdad, le vizir Aziz al-Din al-Mustawfi met en place un hôpital de campagne transporté à dos de deux cents dromadaires, doté de médecins et d'infirmières et équipé du matériel médical et des tentes nécessaires à une armée en marche.
+1121-1122 : fondation de léproseries à Riom en Auvergne.
+Vers 1122 : date la plus probable de la fondation de l'hôpital Saint-Raymond de Toulouse.
+1122-1123 : Barthélemy de Jur, évêque de Laon en Picardie, fonde une maladrerie à La Neuville, faubourg de la ville épiscopale,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1122_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1122_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1121-1122 : Avenzoar (1091 ?-1162) rédige un traité « de vulgarisation médicale », le Kitab al-iqtisad fi islah al-anfus wa al-ajsad (« Livre sur la réforme des âmes et des corps »), qui aborde des questions d'hygiène et de pathologie et, en thérapeutique, celle de la dimension psychologique du traitement[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1121-1122 : Avenzoar (1091 ?-1162) rédige un traité « de vulgarisation médicale », le Kitab al-iqtisad fi islah al-anfus wa al-ajsad (« Livre sur la réforme des âmes et des corps »), qui aborde des questions d'hygiène et de pathologie et, en thérapeutique, celle de la dimension psychologique du traitement.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1122_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1122_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Zour, médecin et astrologue juif avignonnais, au service du roi Louis VI[7].
-1122-1156 : fl. Barthélemy[8], médecin, qui adresse son disciple Bernard[8] à Pierre le Vénérable, abbé de Cluny, affligé d'un catarrhe.
-1122-1165 : fl. André, médecin montpelliérain[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Zour, médecin et astrologue juif avignonnais, au service du roi Louis VI.
+1122-1156 : fl. Barthélemy, médecin, qui adresse son disciple Bernard à Pierre le Vénérable, abbé de Cluny, affligé d'un catarrhe.
+1122-1165 : fl. André, médecin montpelliérain.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1122_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1122_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ibn Hubal (en) (mort en 1213), médecin arabe, connu pour son ouvrage Kitab al-Mukhtar fi al-ṭibb (« Le Livre des choix en médecine[10] »).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ibn Hubal (en) (mort en 1213), médecin arabe, connu pour son ouvrage Kitab al-Mukhtar fi al-ṭibb (« Le Livre des choix en médecine »).</t>
         </is>
       </c>
     </row>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1122_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1122_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean de Villule (né avant 1070), médecin de Tours, qui a assisté Guillaume le Conquérant dans ses derniers moments au prieuré Saint-Gervais et a reçu de son successeur, Guillaume le Roux, l'évêché de Bath, et qui s'est intéressé aux eaux thermales[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean de Villule (né avant 1070), médecin de Tours, qui a assisté Guillaume le Conquérant dans ses derniers moments au prieuré Saint-Gervais et a reçu de son successeur, Guillaume le Roux, l'évêché de Bath, et qui s'est intéressé aux eaux thermales.
 </t>
         </is>
       </c>
